--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/9.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/9.xlsx
@@ -479,13 +479,13 @@
         <v>-20.36743814980577</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.82803423935104</v>
+        <v>-12.09568018634445</v>
       </c>
       <c r="F2" t="n">
-        <v>3.037961422160708</v>
+        <v>-0.1721926808134733</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.75527712910569</v>
+        <v>-11.10621630677816</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-19.91738123126413</v>
       </c>
       <c r="E3" t="n">
-        <v>-12.50690941860306</v>
+        <v>-12.63772770859759</v>
       </c>
       <c r="F3" t="n">
-        <v>3.146130028239049</v>
+        <v>-0.08363634439203821</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.43604750891588</v>
+        <v>-10.9411878294582</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-19.40420518103174</v>
       </c>
       <c r="E4" t="n">
-        <v>-13.04620755725944</v>
+        <v>-13.13746090806627</v>
       </c>
       <c r="F4" t="n">
-        <v>3.022145920327903</v>
+        <v>-0.2205818321164929</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.07112575180845</v>
+        <v>-10.83119939328486</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-18.88477870920668</v>
       </c>
       <c r="E5" t="n">
-        <v>-13.61821026841445</v>
+        <v>-13.64176332122672</v>
       </c>
       <c r="F5" t="n">
-        <v>3.16464254445725</v>
+        <v>0.04712957639112177</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.788567671878321</v>
+        <v>-10.67993092625156</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-18.37622001443988</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.44165065564482</v>
+        <v>-14.34722896755029</v>
       </c>
       <c r="F6" t="n">
-        <v>3.161788422437753</v>
+        <v>0.02801481424220171</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.279381829757911</v>
+        <v>-10.44352321383851</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-17.87809814588519</v>
       </c>
       <c r="E7" t="n">
-        <v>-15.00230234023605</v>
+        <v>-14.86485934500361</v>
       </c>
       <c r="F7" t="n">
-        <v>3.188391981812141</v>
+        <v>0.1381341734439597</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.992752043644002</v>
+        <v>-10.47874150848275</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-17.40378489056596</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.9062211130345</v>
+        <v>-15.54200634028052</v>
       </c>
       <c r="F8" t="n">
-        <v>3.52318835008076</v>
+        <v>0.4307078650480121</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.385373930210646</v>
+        <v>-9.873261778961448</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-16.95890849185957</v>
       </c>
       <c r="E9" t="n">
-        <v>-16.71193452221717</v>
+        <v>-16.39063631817837</v>
       </c>
       <c r="F9" t="n">
-        <v>3.574248331163492</v>
+        <v>0.543458777120957</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.757715839675456</v>
+        <v>-9.339436222892909</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-16.51434313355884</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.3672173717484</v>
+        <v>-17.10156145478694</v>
       </c>
       <c r="F10" t="n">
-        <v>3.852250289704703</v>
+        <v>0.7270914167790068</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.139929345482929</v>
+        <v>-8.809446711556996</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-16.0757671403938</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.32433017099278</v>
+        <v>-18.08409950614995</v>
       </c>
       <c r="F11" t="n">
-        <v>3.982885287459446</v>
+        <v>0.9014023368137477</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.83820413419251</v>
+        <v>-8.56843050854366</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-15.63457044766793</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.2566330563521</v>
+        <v>-18.96820962474887</v>
       </c>
       <c r="F12" t="n">
-        <v>4.325825068095618</v>
+        <v>1.097394110354387</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.222355300820557</v>
+        <v>-8.089841378164364</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-15.16555387290329</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.89069328297689</v>
+        <v>-19.46859743935964</v>
       </c>
       <c r="F13" t="n">
-        <v>4.400739224955974</v>
+        <v>1.030976858038311</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.507004965851486</v>
+        <v>-7.473036806684965</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-14.6914711476793</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.81620126316135</v>
+        <v>-20.4332644973437</v>
       </c>
       <c r="F14" t="n">
-        <v>4.747161558148046</v>
+        <v>1.514043555989477</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.735069698000475</v>
+        <v>-6.662426876239495</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-14.22095579130288</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.65232809184534</v>
+        <v>-21.29043065669435</v>
       </c>
       <c r="F15" t="n">
-        <v>4.839855062267467</v>
+        <v>1.581102331144798</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.370252679315779</v>
+        <v>-6.334621797688358</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-13.75268931712434</v>
       </c>
       <c r="E16" t="n">
-        <v>-22.46106582298444</v>
+        <v>-21.95893673209572</v>
       </c>
       <c r="F16" t="n">
-        <v>5.048258338902063</v>
+        <v>1.746667592881266</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.974603287438817</v>
+        <v>-5.890190485423125</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-13.322750456596</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.42781455712034</v>
+        <v>-22.81704553725097</v>
       </c>
       <c r="F17" t="n">
-        <v>5.401305377332048</v>
+        <v>2.01558349325032</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.876332462308821</v>
+        <v>-5.882138719175463</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-12.94166330436245</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.31960985748735</v>
+        <v>-23.84772398616302</v>
       </c>
       <c r="F18" t="n">
-        <v>5.197353483663639</v>
+        <v>1.963868897025502</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.552730012969878</v>
+        <v>-5.656649987332416</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-12.60585897423311</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.04705748028218</v>
+        <v>-24.43507087624853</v>
       </c>
       <c r="F19" t="n">
-        <v>5.450008743903268</v>
+        <v>2.241216240424627</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.491850804755852</v>
+        <v>-5.631159273699574</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-12.33612718742459</v>
       </c>
       <c r="E20" t="n">
-        <v>-25.4497243464823</v>
+        <v>-24.9299992005743</v>
       </c>
       <c r="F20" t="n">
-        <v>5.643015472395994</v>
+        <v>2.52408853562296</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.170303846963059</v>
+        <v>-5.364455972510773</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-12.12370386159026</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.0501504471067</v>
+        <v>-25.63896049175661</v>
       </c>
       <c r="F21" t="n">
-        <v>5.616726128289809</v>
+        <v>2.481564735993034</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.279127068183487</v>
+        <v>-5.230613360559808</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-11.95483649730383</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.55707132083549</v>
+        <v>-26.16660648088386</v>
       </c>
       <c r="F22" t="n">
-        <v>5.714630368940236</v>
+        <v>2.722620215914894</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.196514637252195</v>
+        <v>-5.382693550369297</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-11.83549273738647</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.96318146268299</v>
+        <v>-26.64660957997006</v>
       </c>
       <c r="F23" t="n">
-        <v>5.711671508498006</v>
+        <v>2.714476803547341</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.313297978600392</v>
+        <v>-5.321133542407502</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-11.74862330767009</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.43421633432261</v>
+        <v>-27.00050761808475</v>
       </c>
       <c r="F24" t="n">
-        <v>5.906825374656774</v>
+        <v>2.929766631476684</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.627487062196134</v>
+        <v>-5.522833559987133</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-11.68118543296484</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.48081184013632</v>
+        <v>-27.16409594209212</v>
       </c>
       <c r="F25" t="n">
-        <v>5.693735053604841</v>
+        <v>2.755560449864677</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.370432788201684</v>
+        <v>-5.176725442063263</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-11.63456482977509</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.8288707111836</v>
+        <v>-27.60892002344261</v>
       </c>
       <c r="F26" t="n">
-        <v>5.785590650342392</v>
+        <v>3.033405300771788</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.412707834077618</v>
+        <v>-5.246271754758512</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-11.58970946551364</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.76166792069703</v>
+        <v>-27.43026245886441</v>
       </c>
       <c r="F27" t="n">
-        <v>5.842830198366418</v>
+        <v>2.957888897980712</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.335083570529024</v>
+        <v>-5.20256964787283</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-11.53727031734637</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.0489130450445</v>
+        <v>-27.66557041783875</v>
       </c>
       <c r="F28" t="n">
-        <v>5.613741083241895</v>
+        <v>2.720892031939786</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.514238642615203</v>
+        <v>-5.240144557028584</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-11.47574947123966</v>
       </c>
       <c r="E29" t="n">
-        <v>-28.1484407312473</v>
+        <v>-27.62232654155254</v>
       </c>
       <c r="F29" t="n">
-        <v>5.701904650578078</v>
+        <v>2.887321385663808</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.58771264616297</v>
+        <v>-5.27015211514182</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-11.3873318809283</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.81035819496541</v>
+        <v>-27.29893356905906</v>
       </c>
       <c r="F30" t="n">
-        <v>5.567001562096933</v>
+        <v>2.742153931754749</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.76178790474656</v>
+        <v>-5.335482706322034</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-11.2702275903933</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.65699495947743</v>
+        <v>-27.03956195746163</v>
       </c>
       <c r="F31" t="n">
-        <v>5.5524952905483</v>
+        <v>2.68572610650691</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.673990921889945</v>
+        <v>-5.227405746363584</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-11.12721374442703</v>
       </c>
       <c r="E32" t="n">
-        <v>-27.38119250781362</v>
+        <v>-26.78346342157462</v>
       </c>
       <c r="F32" t="n">
-        <v>5.590698630240457</v>
+        <v>2.653283380065113</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.9855484526145</v>
+        <v>-5.419679305897174</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-10.94771528849026</v>
       </c>
       <c r="E33" t="n">
-        <v>-27.20646263408795</v>
+        <v>-26.58239183453139</v>
       </c>
       <c r="F33" t="n">
-        <v>5.633327168293117</v>
+        <v>2.729192551941441</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.316809899115853</v>
+        <v>-5.755627796815864</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-10.74244625685223</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.71571075436869</v>
+        <v>-26.11557268440681</v>
       </c>
       <c r="F34" t="n">
-        <v>5.656055406026353</v>
+        <v>2.640033969589286</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.559135332413361</v>
+        <v>-5.88461316441255</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-10.52237959491507</v>
       </c>
       <c r="E35" t="n">
-        <v>-26.42935590661446</v>
+        <v>-25.73136596521351</v>
       </c>
       <c r="F35" t="n">
-        <v>5.58245047945017</v>
+        <v>2.633697295013891</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.743003633522561</v>
+        <v>-5.975120253957402</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-10.28530959983869</v>
       </c>
       <c r="E36" t="n">
-        <v>-26.16561146586788</v>
+        <v>-25.44173804174885</v>
       </c>
       <c r="F36" t="n">
-        <v>5.622329633906067</v>
+        <v>2.635032709903747</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.847388564079644</v>
+        <v>-5.86883693948827</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-10.05311343025136</v>
       </c>
       <c r="E37" t="n">
-        <v>-25.67030346475971</v>
+        <v>-25.00919454046391</v>
       </c>
       <c r="F37" t="n">
-        <v>5.454486311475139</v>
+        <v>2.373631791365844</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.222993640305923</v>
+        <v>-6.10867483524585</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-9.839909013986853</v>
       </c>
       <c r="E38" t="n">
-        <v>-25.2048590064335</v>
+        <v>-24.4013320118254</v>
       </c>
       <c r="F38" t="n">
-        <v>5.799442306748937</v>
+        <v>2.831417252529638</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.211001090902902</v>
+        <v>-6.063401652019161</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-9.643989021089448</v>
       </c>
       <c r="E39" t="n">
-        <v>-24.83713549651794</v>
+        <v>-24.02617207389574</v>
       </c>
       <c r="F39" t="n">
-        <v>5.786376188512895</v>
+        <v>2.743698823490073</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.427351395362425</v>
+        <v>-6.316109281470157</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-9.485732696233782</v>
       </c>
       <c r="E40" t="n">
-        <v>-24.25735595747494</v>
+        <v>-23.49476859385292</v>
       </c>
       <c r="F40" t="n">
-        <v>5.873125787142172</v>
+        <v>2.72319627723993</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.407621294979944</v>
+        <v>-6.145372560111208</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-9.369696229056583</v>
       </c>
       <c r="E41" t="n">
-        <v>-23.80767463177018</v>
+        <v>-23.00211833022161</v>
       </c>
       <c r="F41" t="n">
-        <v>6.085299646995185</v>
+        <v>2.848227769378414</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.72851363763065</v>
+        <v>-6.398865727732708</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-9.285674834032863</v>
       </c>
       <c r="E42" t="n">
-        <v>-23.2761271363961</v>
+        <v>-22.5022803923302</v>
       </c>
       <c r="F42" t="n">
-        <v>6.058984118283315</v>
+        <v>2.908059593365102</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.776811142813777</v>
+        <v>-6.522483251164285</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-9.245991382238662</v>
       </c>
       <c r="E43" t="n">
-        <v>-22.62924954528926</v>
+        <v>-21.8463822045654</v>
       </c>
       <c r="F43" t="n">
-        <v>5.9711871354267</v>
+        <v>2.852679152344601</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.737206926717556</v>
+        <v>-6.288340507142856</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-9.246750377960144</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.34746391122679</v>
+        <v>-21.65016786187645</v>
       </c>
       <c r="F44" t="n">
-        <v>6.122219941008852</v>
+        <v>2.838591834486904</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.749382768360361</v>
+        <v>-6.115548294237755</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-9.274952565370276</v>
       </c>
       <c r="E45" t="n">
-        <v>-21.6724902382216</v>
+        <v>-20.83642887105181</v>
       </c>
       <c r="F45" t="n">
-        <v>6.017612441303461</v>
+        <v>2.754382142608922</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.72555477718842</v>
+        <v>-6.131101950013726</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-9.339653191173866</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.1329040689027</v>
+        <v>-20.25354645623533</v>
       </c>
       <c r="F46" t="n">
-        <v>5.783024558985413</v>
+        <v>2.467844002614905</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.721417609490434</v>
+        <v>-6.113479710388763</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-9.432774849495759</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.37022505916079</v>
+        <v>-19.37839147278015</v>
       </c>
       <c r="F47" t="n">
-        <v>6.033139912473747</v>
+        <v>2.775067981098849</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.836852443645933</v>
+        <v>-6.130722273231316</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-9.543757417813017</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.69366721751175</v>
+        <v>-18.72965477466978</v>
       </c>
       <c r="F48" t="n">
-        <v>5.913999956614041</v>
+        <v>2.581040052984469</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.990817925064632</v>
+        <v>-6.40085575776465</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-9.681599019942562</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.20923892006505</v>
+        <v>-18.15208783480703</v>
       </c>
       <c r="F49" t="n">
-        <v>6.01821468723418</v>
+        <v>2.664071437606695</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.202572831226709</v>
+        <v>-6.718422655493558</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-9.839685561795516</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.62189202997953</v>
+        <v>-17.58728589021497</v>
       </c>
       <c r="F50" t="n">
-        <v>5.852963640765914</v>
+        <v>2.579940299545763</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.091340626283404</v>
+        <v>-6.534357969841731</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-10.01218679316247</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.18280237727372</v>
+        <v>-17.17134342893333</v>
       </c>
       <c r="F51" t="n">
-        <v>6.01753388748641</v>
+        <v>2.696854563922377</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.384765317572169</v>
+        <v>-6.762046208562189</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-10.20666178363248</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.88901110150539</v>
+        <v>-16.78920529358903</v>
       </c>
       <c r="F52" t="n">
-        <v>5.875142001779798</v>
+        <v>2.547759419160801</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.413529106915441</v>
+        <v>-6.743140923258736</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-10.41341604313407</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.99928438498737</v>
+        <v>-15.82510120462717</v>
       </c>
       <c r="F53" t="n">
-        <v>5.913947587402673</v>
+        <v>2.596462785732022</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.504939565356373</v>
+        <v>-6.794423473489777</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-10.62793355524733</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.361466667447</v>
+        <v>-15.15226157698518</v>
       </c>
       <c r="F54" t="n">
-        <v>5.740972082257789</v>
+        <v>2.484654519463681</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.88894990000704</v>
+        <v>-7.210143365623106</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-10.85372151773364</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.96639333689508</v>
+        <v>-14.66545048042128</v>
       </c>
       <c r="F55" t="n">
-        <v>5.847883827263324</v>
+        <v>2.541475113796772</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.151594587314906</v>
+        <v>-7.451932014504102</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-11.07585392497655</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.9168258783363</v>
+        <v>-14.56348762588992</v>
       </c>
       <c r="F56" t="n">
-        <v>5.662680111264267</v>
+        <v>2.3969622750298</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.363768447167919</v>
+        <v>-7.519985804675395</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-11.28986605766726</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.55419527422617</v>
+        <v>-14.15351525470411</v>
       </c>
       <c r="F57" t="n">
-        <v>5.671033000477288</v>
+        <v>2.53516462382706</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.22444016032627</v>
+        <v>-7.336287703503136</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-11.49485568681604</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.3077719501392</v>
+        <v>-14.05617398307588</v>
       </c>
       <c r="F58" t="n">
-        <v>5.557260888782689</v>
+        <v>2.42935263226023</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.45798065841698</v>
+        <v>-7.653199986089957</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-11.67286795930586</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.67291309304107</v>
+        <v>-13.44781394692939</v>
       </c>
       <c r="F59" t="n">
-        <v>5.548305753638948</v>
+        <v>2.444906288036201</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.791598719429843</v>
+        <v>-8.091085146934327</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-11.82327844080337</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.42730149173028</v>
+        <v>-12.96006020456089</v>
       </c>
       <c r="F60" t="n">
-        <v>5.642020457380023</v>
+        <v>2.616284532234395</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.876711780203904</v>
+        <v>-8.062373726802422</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-11.94507850014136</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.23391508645515</v>
+        <v>-12.90805757767355</v>
       </c>
       <c r="F61" t="n">
-        <v>5.591850752890529</v>
+        <v>2.607198474062237</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.981633495177498</v>
+        <v>-8.263785713719535</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-12.02140631958844</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.87496341944354</v>
+        <v>-12.59856863079799</v>
       </c>
       <c r="F62" t="n">
-        <v>5.513925366376576</v>
+        <v>2.59318971002159</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.132823408393751</v>
+        <v>-8.344800883704137</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-12.05867772086774</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.45590499008558</v>
+        <v>-12.10192521479995</v>
       </c>
       <c r="F63" t="n">
-        <v>5.406149529383486</v>
+        <v>2.391777723104477</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.206690181026769</v>
+        <v>-8.387560344785214</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-12.05716603540999</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.34841718375501</v>
+        <v>-11.91871152883284</v>
       </c>
       <c r="F64" t="n">
-        <v>5.301620583495145</v>
+        <v>2.387614370800808</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.053130560996163</v>
+        <v>-8.258012008166334</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-12.00382793743059</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.11965537620153</v>
+        <v>-11.77954034962529</v>
       </c>
       <c r="F65" t="n">
-        <v>5.224847319631264</v>
+        <v>2.260200079545129</v>
       </c>
       <c r="G65" t="n">
-        <v>-8.170869640451807</v>
+        <v>-8.495755135469238</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-11.91218979282815</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.10965285683045</v>
+        <v>-11.87702563658478</v>
       </c>
       <c r="F66" t="n">
-        <v>5.23710171509112</v>
+        <v>2.308013169523113</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.285073798140182</v>
+        <v>-8.603151295679917</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-11.78380907223653</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.05322503158261</v>
+        <v>-11.71570228096903</v>
       </c>
       <c r="F67" t="n">
-        <v>5.200705113191121</v>
+        <v>2.087983927965065</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.228672157498027</v>
+        <v>-8.491840536919563</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-11.61096865795774</v>
       </c>
       <c r="E68" t="n">
-        <v>-12.73224104281201</v>
+        <v>-11.51367495581836</v>
       </c>
       <c r="F68" t="n">
-        <v>4.916392664680197</v>
+        <v>1.867273886659247</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.239276922799824</v>
+        <v>-8.462278117102946</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-11.41062341468912</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.74867188287838</v>
+        <v>-11.45631757706875</v>
       </c>
       <c r="F69" t="n">
-        <v>4.865830191105451</v>
+        <v>1.727212430858461</v>
       </c>
       <c r="G69" t="n">
-        <v>-8.146085911172419</v>
+        <v>-8.382860208065035</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-11.18473480052638</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.77747494913017</v>
+        <v>-11.59588152536155</v>
       </c>
       <c r="F70" t="n">
-        <v>4.797776400934159</v>
+        <v>1.658425471728032</v>
       </c>
       <c r="G70" t="n">
-        <v>-8.255314993780939</v>
+        <v>-8.468771899312442</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-10.93120580089043</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.85474572050204</v>
+        <v>-11.76930216880306</v>
       </c>
       <c r="F71" t="n">
-        <v>4.760594260863657</v>
+        <v>1.629360559419401</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.145143265367814</v>
+        <v>-8.3202528158759</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-10.66813156123733</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.80356790869373</v>
+        <v>-11.69713739553946</v>
       </c>
       <c r="F72" t="n">
-        <v>4.534725852238199</v>
+        <v>1.447403734525092</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.171170763417166</v>
+        <v>-8.316194201994966</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-10.39694514260068</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.93066798468121</v>
+        <v>-11.90038230485442</v>
       </c>
       <c r="F73" t="n">
-        <v>4.408751714295111</v>
+        <v>1.255627682499488</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.827379983096281</v>
+        <v>-7.94107354097383</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-10.11998056136626</v>
       </c>
       <c r="E74" t="n">
-        <v>-13.2456556987503</v>
+        <v>-12.24074290183077</v>
       </c>
       <c r="F74" t="n">
-        <v>4.446876500170218</v>
+        <v>1.24806033145697</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.53496339912633</v>
+        <v>-7.673898916882727</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.853776149242412</v>
       </c>
       <c r="E75" t="n">
-        <v>-13.48620057886133</v>
+        <v>-12.55570443129418</v>
       </c>
       <c r="F75" t="n">
-        <v>4.321556977369215</v>
+        <v>1.134680988847623</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.284952784060728</v>
+        <v>-7.320786416938533</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.597401860257651</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.63210120172953</v>
+        <v>-12.67323403390435</v>
       </c>
       <c r="F76" t="n">
-        <v>4.197546684852386</v>
+        <v>0.9586026079292489</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.262355469355909</v>
+        <v>-7.274950264689649</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-9.355541708033687</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.95931712665279</v>
+        <v>-13.00682591031153</v>
       </c>
       <c r="F77" t="n">
-        <v>4.359655578638638</v>
+        <v>1.046569790722806</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.087691057144442</v>
+        <v>-7.126876319549727</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-9.140713896406252</v>
       </c>
       <c r="E78" t="n">
-        <v>-14.1693569411426</v>
+        <v>-13.35470148911903</v>
       </c>
       <c r="F78" t="n">
-        <v>4.236771224166198</v>
+        <v>0.9211455294990706</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.787838045160389</v>
+        <v>-6.743442046224096</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-8.948393528725987</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.52901559250765</v>
+        <v>-13.67563310867827</v>
       </c>
       <c r="F79" t="n">
-        <v>3.990557376924697</v>
+        <v>0.6341491589055935</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.783831800490821</v>
+        <v>-6.816431634566719</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-8.783085760892108</v>
       </c>
       <c r="E80" t="n">
-        <v>-15.00277366313835</v>
+        <v>-14.171805201774</v>
       </c>
       <c r="F80" t="n">
-        <v>4.217813569651378</v>
+        <v>0.8469252646893255</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.72723377530604</v>
+        <v>-6.6891613586423</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-8.651884697153521</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.51700004185283</v>
+        <v>-14.6149403760579</v>
       </c>
       <c r="F81" t="n">
-        <v>4.116374407233685</v>
+        <v>0.789554793636882</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.60496475906716</v>
+        <v>-6.620754076294281</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-8.545170432409979</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.19121436129319</v>
+        <v>-15.26132045965676</v>
       </c>
       <c r="F82" t="n">
-        <v>4.154918146799726</v>
+        <v>0.8325891930776355</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.544308120001443</v>
+        <v>-6.531058709525616</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-8.46626102763854</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.93946565330353</v>
+        <v>-15.90742560489594</v>
       </c>
       <c r="F83" t="n">
-        <v>4.189167611033682</v>
+        <v>0.8210155973655496</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.475377145539755</v>
+        <v>-6.527275034004357</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-8.416635120759183</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.73050259100061</v>
+        <v>-16.71596695149242</v>
       </c>
       <c r="F84" t="n">
-        <v>4.21456667854663</v>
+        <v>0.8266976567988588</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.144312083581028</v>
+        <v>-6.280917171431597</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-8.382354960941573</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.03945793681354</v>
+        <v>-18.06684385100456</v>
       </c>
       <c r="F85" t="n">
-        <v>4.115274653794979</v>
+        <v>0.8011545739546512</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.834443459923055</v>
+        <v>-5.905115710662693</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.366322952095409</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.00356202577541</v>
+        <v>-19.17601065545275</v>
       </c>
       <c r="F86" t="n">
-        <v>4.060889227790449</v>
+        <v>0.8048989725673849</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.438977360285878</v>
+        <v>-5.523828575003105</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.366030732830339</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.11042458492346</v>
+        <v>-20.16242402845691</v>
       </c>
       <c r="F87" t="n">
-        <v>3.998019989544481</v>
+        <v>0.6187787953694071</v>
       </c>
       <c r="G87" t="n">
-        <v>-5.381711627656168</v>
+        <v>-5.423921212017893</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.366060131064508</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.43060003427174</v>
+        <v>-21.6405188346821</v>
       </c>
       <c r="F88" t="n">
-        <v>3.92148238713175</v>
+        <v>0.5638827695540497</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.084896029931397</v>
+        <v>-5.090093674159561</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-8.371556515391363</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.98228667477028</v>
+        <v>-23.1632322089919</v>
       </c>
       <c r="F89" t="n">
-        <v>4.020957704123185</v>
+        <v>0.6724441447176422</v>
       </c>
       <c r="G89" t="n">
-        <v>-5.210752337148909</v>
+        <v>-5.249466276651893</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-8.380220001479543</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.42093437253335</v>
+        <v>-24.53994022201076</v>
       </c>
       <c r="F90" t="n">
-        <v>3.940780441520455</v>
+        <v>0.6556074432631825</v>
       </c>
       <c r="G90" t="n">
-        <v>-5.138954148364883</v>
+        <v>-5.140551409311573</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-8.379980006958657</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.85761822487016</v>
+        <v>-26.01698764400861</v>
       </c>
       <c r="F91" t="n">
-        <v>3.822923531339236</v>
+        <v>0.621934040354263</v>
       </c>
       <c r="G91" t="n">
-        <v>-5.022013699382586</v>
+        <v>-5.013451333324097</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-8.379451481174478</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.60705100749012</v>
+        <v>-27.73062607065929</v>
       </c>
       <c r="F92" t="n">
-        <v>3.847537060681681</v>
+        <v>0.6394122646479674</v>
       </c>
       <c r="G92" t="n">
-        <v>-5.170166198339558</v>
+        <v>-5.21242815191265</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-8.376890739058956</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.60244888359759</v>
+        <v>-29.61936095551522</v>
       </c>
       <c r="F93" t="n">
-        <v>3.876366311539162</v>
+        <v>0.7133837757037197</v>
       </c>
       <c r="G93" t="n">
-        <v>-5.484996804774545</v>
+        <v>-5.631408027453568</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-8.362555740894173</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.70457521247081</v>
+        <v>-31.81101245122017</v>
       </c>
       <c r="F94" t="n">
-        <v>3.820566916827726</v>
+        <v>0.655201581875089</v>
       </c>
       <c r="G94" t="n">
-        <v>-5.301992595652898</v>
+        <v>-5.441491082431489</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-8.345548338952891</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.70895440832771</v>
+        <v>-33.58174641056362</v>
       </c>
       <c r="F95" t="n">
-        <v>3.604072597036943</v>
+        <v>0.5175098328886559</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.573566233498822</v>
+        <v>-5.735923881039067</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-8.321571378032614</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.16253051468422</v>
+        <v>-35.99848077672351</v>
       </c>
       <c r="F96" t="n">
-        <v>3.480140858337164</v>
+        <v>0.6884691233959149</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.779848557073057</v>
+        <v>-6.14494051411743</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-8.282909816923199</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.51080522928473</v>
+        <v>-38.24760748190364</v>
       </c>
       <c r="F97" t="n">
-        <v>3.426671893531555</v>
+        <v>0.758866435775876</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.199744893812897</v>
+        <v>-6.603590067268779</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-8.23680834927235</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.76391199452874</v>
+        <v>-40.4760090716853</v>
       </c>
       <c r="F98" t="n">
-        <v>2.928509770403878</v>
+        <v>0.3763093467406403</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.311749544623862</v>
+        <v>-6.664770398448164</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-8.17795029850236</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.0797570749903</v>
+        <v>-42.68073977792913</v>
       </c>
       <c r="F99" t="n">
-        <v>2.887138093424024</v>
+        <v>0.2973234836965069</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.627758458314605</v>
+        <v>-7.081000890392319</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-8.103002909339546</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.33154151764729</v>
+        <v>-44.96766396141332</v>
       </c>
       <c r="F100" t="n">
-        <v>2.670643773633242</v>
+        <v>0.1079171384852559</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.728006221173701</v>
+        <v>-7.19819009312861</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-8.017956204124532</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.47102018652795</v>
+        <v>-46.93182360294043</v>
       </c>
       <c r="F101" t="n">
-        <v>2.375490898369369</v>
+        <v>-0.07771862350757802</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.657504170371007</v>
+        <v>-7.328366860283892</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-7.918654906710655</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.07177996143115</v>
+        <v>-49.54286083557438</v>
       </c>
       <c r="F102" t="n">
-        <v>2.097253278377007</v>
+        <v>0.01356091190493613</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.867399969529559</v>
+        <v>-7.696365308559129</v>
       </c>
     </row>
   </sheetData>
